--- a/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Field/MHammer Throw.xlsx
+++ b/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Field/MHammer Throw.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21015" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="MHammer Throw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="56">
   <si>
     <t>.</t>
   </si>
@@ -222,7 +222,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -241,7 +241,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -427,7 +427,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -446,30 +446,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -479,6 +463,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -512,7 +502,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -1514,13 +1504,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'MHammer Throw'!$C$54:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1528,6 +1520,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3157,13 +3152,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'MHammer Throw'!$G$54:$G$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3171,6 +3168,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4806,13 +4806,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'MHammer Throw'!$K$54:$K$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4820,6 +4822,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6758,11 +6763,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91592192"/>
-        <c:axId val="91594112"/>
+        <c:axId val="61454976"/>
+        <c:axId val="61465344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91592192"/>
+        <c:axId val="61454976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -6796,7 +6801,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4908062238076662"/>
+              <c:x val="0.49080622380766692"/>
               <c:y val="0.94397352504849963"/>
             </c:manualLayout>
           </c:layout>
@@ -6835,14 +6840,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91594112"/>
+        <c:crossAx val="61465344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91594112"/>
+        <c:axId val="61465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -6876,7 +6881,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.0724032424124353E-3"/>
+              <c:x val="7.0724032424124431E-3"/>
               <c:y val="0.41426184545522515"/>
             </c:manualLayout>
           </c:layout>
@@ -6915,7 +6920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91592192"/>
+        <c:crossAx val="61454976"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6965,7 +6970,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299801" r="0.74803149606299801" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299868" r="0.74803149606299868" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -7298,8 +7303,8 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="S1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -8657,187 +8662,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="23" t="s">
         <v>38</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="14">
         <v>19.57</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="14">
         <v>72.17</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="14">
         <v>19.18</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="14">
         <v>70.150000000000006</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="14">
         <v>19.149999999999999</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="14">
         <v>71.44</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="14">
         <v>14.5</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="14">
         <v>76.772300000000001</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="14">
         <v>64.319999999999993</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="14">
         <v>28.19</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="14">
         <v>25.25</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="13">
         <v>31.13</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="25">
+      <c r="AI2" s="21">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="24">
+      <c r="AK2" s="20">
         <f>D3</f>
         <v>77.06</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="14">
         <v>28.37</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="14">
         <v>77.06</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="14">
         <v>24.99</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="14">
         <v>76.02</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="14">
         <v>21.65</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="14">
         <v>73.28</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="14">
         <v>14.5</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="14">
         <v>79.340500000000006</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="14">
         <v>81.349999999999994</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="14">
         <v>28.19</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="14">
         <v>25.25</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="13">
         <v>31.13</v>
       </c>
       <c r="AH3" s="2"/>
@@ -8849,58 +8854,58 @@
       <c r="AK3" s="7"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="14">
         <v>37.17</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="14">
         <v>79.319999999999993</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="14">
         <v>30.8</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="14">
         <v>77.680000000000007</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="14">
         <v>24.15</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="14">
         <v>75.42</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21" t="s">
+      <c r="M4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH4" s="2"/>
@@ -8912,52 +8917,52 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="21" t="s">
+      <c r="K5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH5" s="2"/>
@@ -8969,58 +8974,58 @@
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="14">
         <v>19.27</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="14">
         <v>74.19</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="14">
         <v>18.04</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="14">
         <v>65.95</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="14">
         <v>22.49</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="14">
         <v>76.27</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21" t="s">
+      <c r="M6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH6" s="2"/>
@@ -9032,58 +9037,58 @@
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="14">
         <v>24.05</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="14">
         <v>78.56</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="14">
         <v>22.69</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="14">
         <v>77.39</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="14">
         <v>24.99</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="14">
         <v>76.31</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21" t="s">
+      <c r="M7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH7" s="2"/>
@@ -9095,58 +9100,58 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="14">
         <v>28.84</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="14">
         <v>79.650000000000006</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="14">
         <v>27.35</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="14">
         <v>78.94</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="14">
         <v>27.49</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="14">
         <v>76.430000000000007</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="M8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH8" s="2"/>
@@ -9158,52 +9163,52 @@
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="21" t="s">
+      <c r="K9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH9" s="2"/>
@@ -9215,58 +9220,58 @@
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="14">
         <v>18.22</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="14">
         <v>66.739999999999995</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="14">
         <v>17.239999999999998</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="14">
         <v>65.930000000000007</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="14">
         <v>17.7</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="14">
         <v>69.14</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="21" t="s">
+      <c r="M10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH10" s="2"/>
@@ -9278,58 +9283,58 @@
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="14">
         <v>22.31</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="14">
         <v>75.77</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="14">
         <v>22.94</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="14">
         <v>75.680000000000007</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="14">
         <v>22.16</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="14">
         <v>75.67</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21" t="s">
+      <c r="M11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH11" s="2"/>
@@ -9341,58 +9346,58 @@
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="14">
         <v>26.4</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="14">
         <v>76.540000000000006</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="14">
         <v>28.65</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="14">
         <v>77.88</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="14">
         <v>26.61</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="14">
         <v>76.69</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="21" t="s">
+      <c r="M12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH12" s="2"/>
@@ -9404,52 +9409,52 @@
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
+      <c r="G13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21" t="s">
+      <c r="K13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH13" s="2"/>
@@ -9461,58 +9466,58 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="14">
         <v>20.36</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="14">
         <v>76.650000000000006</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="14">
         <v>16.28</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="14">
         <v>65.66</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="14">
         <v>17.66</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="14">
         <v>64.319999999999993</v>
       </c>
-      <c r="M14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21" t="s">
+      <c r="M14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH14" s="2"/>
@@ -9524,58 +9529,58 @@
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="14">
         <v>27.89</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="14">
         <v>78.930000000000007</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="14">
         <v>21.43</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="14">
         <v>77.180000000000007</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="14">
         <v>23.02</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="14">
         <v>74.44</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="21" t="s">
+      <c r="M15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH15" s="2"/>
@@ -9587,58 +9592,58 @@
       <c r="AK15" s="7"/>
     </row>
     <row r="16" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="14">
         <v>35.43</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="14">
         <v>80.42</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="14">
         <v>26.58</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="14">
         <v>79.23</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="14">
         <v>28.38</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="14">
         <v>76.459999999999994</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21" t="s">
+      <c r="M16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH16" s="2"/>
@@ -9650,52 +9655,52 @@
       <c r="AK16" s="7"/>
     </row>
     <row r="17" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="C17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22" t="s">
+      <c r="G17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21" t="s">
+      <c r="K17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH17" s="2"/>
@@ -9707,58 +9712,58 @@
       <c r="AK17" s="7"/>
     </row>
     <row r="18" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="14">
         <v>19.97</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="14">
         <v>73.599999999999994</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="14">
         <v>19.02</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="14">
         <v>74.19</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="14">
         <v>17.05</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="14">
         <v>65.11</v>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21" t="s">
+      <c r="M18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH18" s="2"/>
@@ -9770,58 +9775,58 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="14">
         <v>26.01</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="14">
         <v>79.239999999999995</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="14">
         <v>23.39</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="14">
         <v>76.599999999999994</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="14">
         <v>21.38</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="14">
         <v>72.94</v>
       </c>
-      <c r="M19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21" t="s">
+      <c r="M19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH19" s="2"/>
@@ -9833,58 +9838,58 @@
       <c r="AK19" s="7"/>
     </row>
     <row r="20" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="14">
         <v>32.06</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="14">
         <v>81.349999999999994</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="14">
         <v>27.76</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="14">
         <v>77.39</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="14">
         <v>25.7</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="14">
         <v>76.73</v>
       </c>
-      <c r="M20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21" t="s">
+      <c r="M20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH20" s="2"/>
@@ -9896,52 +9901,52 @@
       <c r="AK20" s="7"/>
     </row>
     <row r="21" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="C21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22" t="s">
+      <c r="G21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21" t="s">
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH21" s="2"/>
@@ -9953,58 +9958,58 @@
       <c r="AK21" s="7"/>
     </row>
     <row r="22" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="14">
         <v>18.71</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="14">
         <v>69.73</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="14">
         <v>21.42</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="14">
         <v>70.12</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="14">
         <v>18.190000000000001</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="14">
         <v>67.42</v>
       </c>
-      <c r="M22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="21" t="s">
+      <c r="M22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH22" s="2"/>
@@ -10016,58 +10021,58 @@
       <c r="AK22" s="7"/>
     </row>
     <row r="23" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="14">
         <v>25.1</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="14">
         <v>76.44</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="14">
         <v>25.43</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="14">
         <v>76.38</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="14">
         <v>22.45</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="14">
         <v>75.39</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21" t="s">
+      <c r="M23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH23" s="2"/>
@@ -10079,58 +10084,58 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="14">
         <v>31.49</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="14">
         <v>78.459999999999994</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="14">
         <v>29.44</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="14">
         <v>77.05</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="14">
         <v>26.71</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="14">
         <v>76.31</v>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21" t="s">
+      <c r="M24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH24" s="2"/>
@@ -10142,52 +10147,52 @@
       <c r="AK24" s="7"/>
     </row>
     <row r="25" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="C25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
+      <c r="G25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21" t="s">
+      <c r="K25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH25" s="2"/>
@@ -10199,54 +10204,54 @@
       <c r="AK25" s="7"/>
     </row>
     <row r="26" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="14">
         <v>19.88</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="14">
         <v>68.87</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="14">
         <v>23.68</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="14">
         <v>70.7</v>
       </c>
-      <c r="M26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21" t="s">
+      <c r="M26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH26" s="2"/>
@@ -10258,54 +10263,54 @@
       <c r="AK26" s="7"/>
     </row>
     <row r="27" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="14">
         <v>25.83</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="14">
         <v>78.819999999999993</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="14">
         <v>28</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="14">
         <v>74.94</v>
       </c>
-      <c r="M27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" s="21" t="s">
+      <c r="M27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH27" s="2"/>
@@ -10317,54 +10322,54 @@
       <c r="AK27" s="7"/>
     </row>
     <row r="28" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="14">
         <v>31.78</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="14">
         <v>81.22</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="14">
         <v>32.31</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="14">
         <v>75.77</v>
       </c>
-      <c r="M28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="21" t="s">
+      <c r="M28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH28" s="2"/>
@@ -10376,50 +10381,50 @@
       <c r="AK28" s="7"/>
     </row>
     <row r="29" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22" t="s">
+      <c r="C29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21" t="s">
+      <c r="K29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH29" s="2"/>
@@ -10431,50 +10436,50 @@
       <c r="AK29" s="7"/>
     </row>
     <row r="30" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="14">
         <v>18.989999999999998</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="14">
         <v>68.11</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="21" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH30" s="2"/>
@@ -10486,50 +10491,50 @@
       <c r="AK30" s="7"/>
     </row>
     <row r="31" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="14">
         <v>24.54</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="14">
         <v>75.98</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="21" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH31" s="2"/>
@@ -10541,50 +10546,50 @@
       <c r="AK31" s="7"/>
     </row>
     <row r="32" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="14">
         <v>30.09</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="14">
         <v>77.81</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="21" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH32" s="2"/>
@@ -10596,48 +10601,48 @@
       <c r="AK32" s="7"/>
     </row>
     <row r="33" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="21" t="s">
+      <c r="C33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH33" s="2"/>
@@ -10649,50 +10654,50 @@
       <c r="AK33" s="7"/>
     </row>
     <row r="34" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="14">
         <v>19.38</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="14">
         <v>71.97</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" s="21" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AH34" s="2"/>
@@ -10704,65 +10709,65 @@
       <c r="AK34" s="7"/>
     </row>
     <row r="35" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>25.65</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>76.13</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="2"/>
@@ -10774,69 +10779,69 @@
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>31.92</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>77.680000000000007</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U36" s="17" t="s">
+      <c r="U36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="2"/>
@@ -10848,70 +10853,70 @@
       <c r="AK36" s="7"/>
     </row>
     <row r="37" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="20" t="s">
+      <c r="C37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="T37" s="19">
+      <c r="T37" s="18">
         <v>1.1284722222222223E-4</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="17">
         <f>T37</f>
         <v>1.1284722222222223E-4</v>
       </c>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="2"/>
@@ -10923,72 +10928,72 @@
       <c r="AK37" s="7"/>
     </row>
     <row r="38" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>17.940000000000001</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>64.63</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="20" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="19">
+      <c r="T38" s="18">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="U38" s="18">
+      <c r="U38" s="17">
         <f>T38</f>
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
       <c r="AH38" s="2"/>
@@ -11000,72 +11005,72 @@
       <c r="AK38" s="7"/>
     </row>
     <row r="39" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>23.95</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>75.400000000000006</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="20" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="18">
         <v>2.8935185185185184E-6</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="17">
         <f>T39</f>
         <v>2.8935185185185184E-6</v>
       </c>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="2"/>
@@ -11077,72 +11082,72 @@
       <c r="AK39" s="7"/>
     </row>
     <row r="40" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>29.96</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>78.849999999999994</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="20" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="T40" s="19">
+      <c r="T40" s="18">
         <v>5.787037037037037E-7</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="17">
         <f>T40</f>
         <v>5.787037037037037E-7</v>
       </c>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="2"/>
@@ -11154,63 +11159,63 @@
       <c r="AK40" s="7"/>
     </row>
     <row r="41" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
+      <c r="C41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="2"/>
@@ -11222,65 +11227,65 @@
       <c r="AK41" s="7"/>
     </row>
     <row r="42" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>17.940000000000001</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>74.040000000000006</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="2"/>
@@ -11292,65 +11297,65 @@
       <c r="AK42" s="7"/>
     </row>
     <row r="43" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>23.17</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>78.03</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="2"/>
@@ -11362,65 +11367,65 @@
       <c r="AK43" s="7"/>
     </row>
     <row r="44" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>28.39</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>79.25</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
       <c r="AH44" s="2"/>
@@ -11432,63 +11437,63 @@
       <c r="AK44" s="7"/>
     </row>
     <row r="45" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
+      <c r="C45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="2"/>
@@ -11500,65 +11505,65 @@
       <c r="AK45" s="7"/>
     </row>
     <row r="46" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>22.94</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>76.27</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="2"/>
@@ -11570,65 +11575,65 @@
       <c r="AK46" s="7"/>
     </row>
     <row r="47" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>28.69</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>78.41</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
       <c r="AH47" s="2"/>
@@ -11640,50 +11645,50 @@
       <c r="AK47" s="7"/>
     </row>
     <row r="48" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>34.450000000000003</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>79.540000000000006</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="14" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="9"/>
@@ -11710,48 +11715,48 @@
       <c r="AK48" s="7"/>
     </row>
     <row r="49" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="14" t="s">
+      <c r="C49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S49" s="9"/>
@@ -11778,50 +11783,50 @@
       <c r="AK49" s="7"/>
     </row>
     <row r="50" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>19.309999999999999</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>71.42</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="14" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S50" s="9"/>
@@ -11848,50 +11853,50 @@
       <c r="AK50" s="7"/>
     </row>
     <row r="51" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>24.99</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>77.989999999999995</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="14" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="9"/>
@@ -11918,50 +11923,50 @@
       <c r="AK51" s="7"/>
     </row>
     <row r="52" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>30.66</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>79.72</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="14" t="s">
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S52" s="9"/>
@@ -11988,48 +11993,48 @@
       <c r="AK52" s="7"/>
     </row>
     <row r="53" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="11" t="s">
+      <c r="C53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S53" s="9"/>
@@ -12055,25 +12060,49 @@
       </c>
       <c r="AK53" s="7"/>
     </row>
-    <row r="54" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
+    <row r="54" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -12098,24 +12127,24 @@
       <c r="AK54" s="7"/>
     </row>
     <row r="55" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>

--- a/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Field/MHammer Throw.xlsx
+++ b/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Field/MHammer Throw.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19095" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="MHammer Throw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="56">
   <si>
     <t>.</t>
   </si>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="mm:ss.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -245,13 +246,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -376,6 +378,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -424,10 +437,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -470,6 +483,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -479,13 +498,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +521,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -6763,11 +6782,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61454976"/>
-        <c:axId val="61465344"/>
+        <c:axId val="88310912"/>
+        <c:axId val="88312832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61454976"/>
+        <c:axId val="88310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -6801,7 +6820,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080622380766692"/>
+              <c:x val="0.49080622380766736"/>
               <c:y val="0.94397352504849963"/>
             </c:manualLayout>
           </c:layout>
@@ -6840,14 +6859,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61465344"/>
+        <c:crossAx val="88312832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61465344"/>
+        <c:axId val="88312832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -6881,7 +6900,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.0724032424124431E-3"/>
+              <c:x val="7.0724032424124474E-3"/>
               <c:y val="0.41426184545522515"/>
             </c:manualLayout>
           </c:layout>
@@ -6920,7 +6939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61454976"/>
+        <c:crossAx val="88310912"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6970,7 +6989,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299868" r="0.74803149606299868" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299901" r="0.74803149606299901" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -7303,29 +7322,29 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="16.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
@@ -8662,66 +8681,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="25" t="s">
         <v>38</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="23" t="s">
         <v>37</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8781,11 +8800,11 @@
         <v>31.13</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="21">
+      <c r="AI2" s="23">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="20">
+      <c r="AK2" s="22">
         <f>D3</f>
         <v>77.06</v>
       </c>
@@ -9010,17 +9029,17 @@
       <c r="L6" s="14">
         <v>76.27</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>0</v>
+      <c r="M6" s="20">
+        <v>84.5</v>
+      </c>
+      <c r="N6" s="21">
+        <v>47.5</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1.25</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>0</v>
@@ -13100,7 +13119,6 @@
       <c r="AK150" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection password="E455" sheet="1" scenarios="1"/>
   <autoFilter ref="A1:L122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
